--- a/data/trans_orig/PCS12_SP_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5824C6C8-D3B4-41FB-888F-CE2FEA491306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{838B7F16-015C-4237-823F-511D6F23F4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{802730CD-A20C-4AC2-9E42-CBC22BB8CC8E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{728579F3-0BC3-4A8D-8BBA-7E927D105F02}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="348">
   <si>
     <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1234 +68,1021 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>50,86%</t>
   </si>
   <si>
     <t>46,33%</t>
   </si>
   <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
   </si>
   <si>
     <t>49,86%</t>
   </si>
   <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>46,63%</t>
   </si>
   <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
   </si>
   <si>
     <t>49,8%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
   </si>
   <si>
     <t>50,2%</t>
   </si>
   <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
   </si>
 </sst>
 </file>
@@ -1707,8 +1494,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D66E1B7-EFBE-4C87-9D5A-5B3684C41154}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0549D9-FE9F-4DBE-9489-4D410383697B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1825,10 +1612,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>295</v>
       </c>
       <c r="D4" s="7">
-        <v>50040</v>
+        <v>296491</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1840,10 +1627,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>75</v>
+        <v>398</v>
       </c>
       <c r="I4" s="7">
-        <v>65491</v>
+        <v>394544</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1855,10 +1642,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>122</v>
+        <v>693</v>
       </c>
       <c r="N4" s="7">
-        <v>115531</v>
+        <v>691035</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1876,10 +1663,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>58</v>
+        <v>388</v>
       </c>
       <c r="D5" s="7">
-        <v>65318</v>
+        <v>397521</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1891,10 +1678,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>53</v>
+        <v>298</v>
       </c>
       <c r="I5" s="7">
-        <v>47264</v>
+        <v>293807</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1906,10 +1693,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>111</v>
+        <v>686</v>
       </c>
       <c r="N5" s="7">
-        <v>112582</v>
+        <v>691328</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1927,10 +1714,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1942,10 +1729,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1957,10 +1744,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1980,10 +1767,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="D7" s="7">
-        <v>246451</v>
+        <v>381168</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1995,10 +1782,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>323</v>
+        <v>542</v>
       </c>
       <c r="I7" s="7">
-        <v>329053</v>
+        <v>583514</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2010,10 +1797,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>571</v>
+        <v>909</v>
       </c>
       <c r="N7" s="7">
-        <v>575504</v>
+        <v>964683</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2031,10 +1818,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>330</v>
+        <v>529</v>
       </c>
       <c r="D8" s="7">
-        <v>332203</v>
+        <v>580632</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2046,10 +1833,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>245</v>
+        <v>366</v>
       </c>
       <c r="I8" s="7">
-        <v>246543</v>
+        <v>384879</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2061,10 +1848,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>575</v>
+        <v>895</v>
       </c>
       <c r="N8" s="7">
-        <v>578746</v>
+        <v>965510</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2082,10 +1869,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2097,10 +1884,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2112,10 +1899,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2135,49 +1922,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="D10" s="7">
-        <v>381168</v>
+        <v>317133</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>395</v>
+      </c>
+      <c r="I10" s="7">
+        <v>388475</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>542</v>
-      </c>
-      <c r="I10" s="7">
-        <v>583514</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>695</v>
+      </c>
+      <c r="N10" s="7">
+        <v>705608</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>909</v>
-      </c>
-      <c r="N10" s="7">
-        <v>964683</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,49 +1973,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>529</v>
+        <v>341</v>
       </c>
       <c r="D11" s="7">
-        <v>580632</v>
+        <v>361376</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>301</v>
+      </c>
+      <c r="I11" s="7">
+        <v>295366</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>366</v>
-      </c>
-      <c r="I11" s="7">
-        <v>384879</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>642</v>
+      </c>
+      <c r="N11" s="7">
+        <v>656742</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>895</v>
-      </c>
-      <c r="N11" s="7">
-        <v>965510</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,10 +2024,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2252,10 +2039,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2267,10 +2054,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2284,55 +2071,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>300</v>
+        <v>427</v>
       </c>
       <c r="D13" s="7">
-        <v>317133</v>
+        <v>400150</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>534</v>
+      </c>
+      <c r="I13" s="7">
+        <v>561413</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>395</v>
-      </c>
-      <c r="I13" s="7">
-        <v>388475</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>961</v>
+      </c>
+      <c r="N13" s="7">
+        <v>961563</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>695</v>
-      </c>
-      <c r="N13" s="7">
-        <v>705608</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,49 +2128,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>341</v>
+        <v>567</v>
       </c>
       <c r="D14" s="7">
-        <v>361376</v>
+        <v>542072</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>463</v>
+      </c>
+      <c r="I14" s="7">
+        <v>477199</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>301</v>
-      </c>
-      <c r="I14" s="7">
-        <v>295366</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1030</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1019271</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>642</v>
-      </c>
-      <c r="N14" s="7">
-        <v>656742</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,10 +2179,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2407,10 +2194,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2422,10 +2209,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2439,55 +2226,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>427</v>
+        <v>1389</v>
       </c>
       <c r="D16" s="7">
-        <v>400150</v>
+        <v>1394942</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1869</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1927947</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>534</v>
-      </c>
-      <c r="I16" s="7">
-        <v>561413</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3258</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3322889</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>961</v>
-      </c>
-      <c r="N16" s="7">
-        <v>961563</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,49 +2283,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>567</v>
+        <v>1825</v>
       </c>
       <c r="D17" s="7">
-        <v>542072</v>
+        <v>1881601</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1428</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1451250</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>463</v>
-      </c>
-      <c r="I17" s="7">
-        <v>477199</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3253</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3332852</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1030</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1019271</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,10 +2334,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2562,10 +2349,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2577,10 +2364,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2593,171 +2380,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1389</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1394942</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1869</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1927947</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3258</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3322889</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1825</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1881602</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1428</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1451251</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3253</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3332851</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2770,8 +2401,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D134F41-0C59-4276-B30B-4711A67FEDBB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEAE3BF-DE2C-429A-83B5-2C0CAD4612E5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2787,7 +2418,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2888,49 +2519,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="D4" s="7">
-        <v>51480</v>
+        <v>318545</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>47</v>
+        <v>344</v>
       </c>
       <c r="I4" s="7">
-        <v>54180</v>
+        <v>371374</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>103</v>
+        <v>644</v>
       </c>
       <c r="N4" s="7">
-        <v>105660</v>
+        <v>689918</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,49 +2570,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>66</v>
+        <v>374</v>
       </c>
       <c r="D5" s="7">
-        <v>64285</v>
+        <v>384924</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="I5" s="7">
-        <v>57725</v>
+        <v>325676</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>118</v>
+        <v>680</v>
       </c>
       <c r="N5" s="7">
-        <v>122010</v>
+        <v>710601</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,10 +2621,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3005,10 +2636,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3020,10 +2651,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3043,49 +2674,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>244</v>
+        <v>413</v>
       </c>
       <c r="D7" s="7">
-        <v>267065</v>
+        <v>448861</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>297</v>
+        <v>518</v>
       </c>
       <c r="I7" s="7">
-        <v>317194</v>
+        <v>570563</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>541</v>
+        <v>931</v>
       </c>
       <c r="N7" s="7">
-        <v>584259</v>
+        <v>1019424</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,49 +2725,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>308</v>
+        <v>523</v>
       </c>
       <c r="D8" s="7">
-        <v>320639</v>
+        <v>569086</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
-        <v>254</v>
+        <v>422</v>
       </c>
       <c r="I8" s="7">
-        <v>267951</v>
+        <v>461621</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>562</v>
+        <v>945</v>
       </c>
       <c r="N8" s="7">
-        <v>588590</v>
+        <v>1030707</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,10 +2776,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3160,10 +2791,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3175,10 +2806,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3198,49 +2829,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>413</v>
+        <v>273</v>
       </c>
       <c r="D10" s="7">
-        <v>448861</v>
+        <v>309642</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>518</v>
+        <v>368</v>
       </c>
       <c r="I10" s="7">
-        <v>570563</v>
+        <v>409071</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>931</v>
+        <v>641</v>
       </c>
       <c r="N10" s="7">
-        <v>1019424</v>
+        <v>718713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,49 +2880,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>523</v>
+        <v>416</v>
       </c>
       <c r="D11" s="7">
-        <v>569086</v>
+        <v>447981</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
-        <v>422</v>
+        <v>337</v>
       </c>
       <c r="I11" s="7">
-        <v>461621</v>
+        <v>368103</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="M11" s="7">
-        <v>945</v>
+        <v>753</v>
       </c>
       <c r="N11" s="7">
-        <v>1030707</v>
+        <v>816084</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,10 +2931,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3315,10 +2946,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3330,10 +2961,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3347,55 +2978,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>273</v>
+        <v>401</v>
       </c>
       <c r="D13" s="7">
-        <v>309642</v>
+        <v>430384</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>368</v>
+        <v>550</v>
       </c>
       <c r="I13" s="7">
-        <v>409071</v>
+        <v>580746</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>641</v>
+        <v>951</v>
       </c>
       <c r="N13" s="7">
-        <v>718713</v>
+        <v>1011130</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,49 +3035,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>416</v>
+        <v>509</v>
       </c>
       <c r="D14" s="7">
-        <v>447981</v>
+        <v>517355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>337</v>
+        <v>453</v>
       </c>
       <c r="I14" s="7">
-        <v>368103</v>
+        <v>471155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>753</v>
+        <v>962</v>
       </c>
       <c r="N14" s="7">
-        <v>816084</v>
+        <v>988510</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,10 +3086,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3470,10 +3101,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3485,10 +3116,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3502,55 +3133,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>401</v>
+        <v>1387</v>
       </c>
       <c r="D16" s="7">
-        <v>430384</v>
+        <v>1507432</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>550</v>
+        <v>1780</v>
       </c>
       <c r="I16" s="7">
-        <v>580746</v>
+        <v>1931754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>951</v>
+        <v>3167</v>
       </c>
       <c r="N16" s="7">
-        <v>1011130</v>
+        <v>3439186</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,49 +3190,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>509</v>
+        <v>1822</v>
       </c>
       <c r="D17" s="7">
-        <v>517355</v>
+        <v>1919347</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>453</v>
+        <v>1518</v>
       </c>
       <c r="I17" s="7">
-        <v>471155</v>
+        <v>1626555</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>962</v>
+        <v>3340</v>
       </c>
       <c r="N17" s="7">
-        <v>988510</v>
+        <v>3545902</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,10 +3241,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3625,10 +3256,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3640,10 +3271,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3656,171 +3287,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1387</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1507432</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1780</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1931754</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3167</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3439186</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1822</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1919347</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1518</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1626555</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3340</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3545902</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3833,8 +3308,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7863C97C-4874-4651-B519-B3929FEFCFDB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125D30FF-034D-4DC4-80E5-F76EC5966F39}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3850,7 +3325,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3951,49 +3426,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="D4" s="7">
-        <v>59214</v>
+        <v>292006</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>61</v>
+        <v>326</v>
       </c>
       <c r="I4" s="7">
-        <v>63429</v>
+        <v>346253</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
-        <v>119</v>
+        <v>608</v>
       </c>
       <c r="N4" s="7">
-        <v>122644</v>
+        <v>638260</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,49 +3477,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>55</v>
+        <v>370</v>
       </c>
       <c r="D5" s="7">
-        <v>57332</v>
+        <v>382794</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>54</v>
+        <v>340</v>
       </c>
       <c r="I5" s="7">
-        <v>49931</v>
+        <v>326586</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
-        <v>109</v>
+        <v>710</v>
       </c>
       <c r="N5" s="7">
-        <v>107262</v>
+        <v>709379</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,10 +3528,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4068,10 +3543,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4083,10 +3558,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4106,49 +3581,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>224</v>
+        <v>356</v>
       </c>
       <c r="D7" s="7">
-        <v>232792</v>
+        <v>376822</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>265</v>
+        <v>437</v>
       </c>
       <c r="I7" s="7">
-        <v>282824</v>
+        <v>488347</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
-        <v>489</v>
+        <v>793</v>
       </c>
       <c r="N7" s="7">
-        <v>515616</v>
+        <v>865169</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,49 +3632,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>315</v>
+        <v>595</v>
       </c>
       <c r="D8" s="7">
-        <v>325462</v>
+        <v>645609</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
-        <v>286</v>
+        <v>540</v>
       </c>
       <c r="I8" s="7">
-        <v>276655</v>
+        <v>554566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
-        <v>601</v>
+        <v>1135</v>
       </c>
       <c r="N8" s="7">
-        <v>602117</v>
+        <v>1200175</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,10 +3683,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4223,10 +3698,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4238,10 +3713,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4261,49 +3736,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>356</v>
+        <v>284</v>
       </c>
       <c r="D10" s="7">
-        <v>376822</v>
+        <v>307217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
-        <v>437</v>
+        <v>345</v>
       </c>
       <c r="I10" s="7">
-        <v>488347</v>
+        <v>384824</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
-        <v>793</v>
+        <v>629</v>
       </c>
       <c r="N10" s="7">
-        <v>865169</v>
+        <v>692041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,49 +3787,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>595</v>
+        <v>412</v>
       </c>
       <c r="D11" s="7">
-        <v>645609</v>
+        <v>452335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
-        <v>540</v>
+        <v>391</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>400187</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="M11" s="7">
-        <v>1135</v>
+        <v>803</v>
       </c>
       <c r="N11" s="7">
-        <v>1200175</v>
+        <v>852522</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,10 +3838,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4378,10 +3853,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4393,10 +3868,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4410,55 +3885,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>284</v>
+        <v>346</v>
       </c>
       <c r="D13" s="7">
-        <v>307217</v>
+        <v>345969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
-        <v>345</v>
+        <v>413</v>
       </c>
       <c r="I13" s="7">
-        <v>384824</v>
+        <v>475837</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="M13" s="7">
-        <v>629</v>
+        <v>759</v>
       </c>
       <c r="N13" s="7">
-        <v>692041</v>
+        <v>821806</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,49 +3942,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>412</v>
+        <v>586</v>
       </c>
       <c r="D14" s="7">
-        <v>452335</v>
+        <v>591598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
-        <v>391</v>
+        <v>546</v>
       </c>
       <c r="I14" s="7">
-        <v>400187</v>
+        <v>567942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
-        <v>803</v>
+        <v>1132</v>
       </c>
       <c r="N14" s="7">
-        <v>852522</v>
+        <v>1159540</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>117</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,10 +3993,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4533,10 +4008,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4548,10 +4023,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4565,55 +4040,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>346</v>
+        <v>1268</v>
       </c>
       <c r="D16" s="7">
-        <v>345969</v>
+        <v>1322013</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
-        <v>413</v>
+        <v>1521</v>
       </c>
       <c r="I16" s="7">
-        <v>475837</v>
+        <v>1695262</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
-        <v>759</v>
+        <v>2789</v>
       </c>
       <c r="N16" s="7">
-        <v>821806</v>
+        <v>3017275</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,49 +4097,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>586</v>
+        <v>1963</v>
       </c>
       <c r="D17" s="7">
-        <v>591598</v>
+        <v>2072337</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
-        <v>546</v>
+        <v>1817</v>
       </c>
       <c r="I17" s="7">
-        <v>567942</v>
+        <v>1849280</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
-        <v>1132</v>
+        <v>3780</v>
       </c>
       <c r="N17" s="7">
-        <v>1159540</v>
+        <v>3921617</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4688,10 +4163,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4703,10 +4178,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4719,171 +4194,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1268</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1322013</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1521</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1695262</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2789</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3017275</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1963</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2072337</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1817</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1849280</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3780</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3921617</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4896,8 +4215,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7378FB-15E7-40B0-AEB7-6B28E9F13DFC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C31F78F-101D-4188-BCB5-7F5C7422DF16}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4913,7 +4232,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5014,49 +4333,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>70</v>
+        <v>411</v>
       </c>
       <c r="D4" s="7">
-        <v>56313</v>
+        <v>320510</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="H4" s="7">
-        <v>152</v>
+        <v>744</v>
       </c>
       <c r="I4" s="7">
-        <v>72704</v>
+        <v>364395</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
-        <v>222</v>
+        <v>1155</v>
       </c>
       <c r="N4" s="7">
-        <v>129017</v>
+        <v>684904</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,49 +4384,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>46</v>
+        <v>313</v>
       </c>
       <c r="D5" s="7">
-        <v>43185</v>
+        <v>309654</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
-        <v>86</v>
+        <v>483</v>
       </c>
       <c r="I5" s="7">
-        <v>55998</v>
+        <v>305466</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
-        <v>132</v>
+        <v>796</v>
       </c>
       <c r="N5" s="7">
-        <v>99183</v>
+        <v>615120</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,10 +4435,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>116</v>
+        <v>724</v>
       </c>
       <c r="D6" s="7">
-        <v>99498</v>
+        <v>630164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5131,10 +4450,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>238</v>
+        <v>1227</v>
       </c>
       <c r="I6" s="7">
-        <v>128702</v>
+        <v>669861</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5146,10 +4465,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>354</v>
+        <v>1951</v>
       </c>
       <c r="N6" s="7">
-        <v>228200</v>
+        <v>1300024</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5169,49 +4488,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="D7" s="7">
-        <v>272459</v>
+        <v>593664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
-        <v>592</v>
+        <v>841</v>
       </c>
       <c r="I7" s="7">
-        <v>314484</v>
+        <v>479906</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
-        <v>933</v>
+        <v>1248</v>
       </c>
       <c r="N7" s="7">
-        <v>586943</v>
+        <v>1073570</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,49 +4539,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>267</v>
+        <v>552</v>
       </c>
       <c r="D8" s="7">
-        <v>274261</v>
+        <v>594648</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
-        <v>397</v>
+        <v>665</v>
       </c>
       <c r="I8" s="7">
-        <v>274138</v>
+        <v>472933</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
-        <v>664</v>
+        <v>1217</v>
       </c>
       <c r="N8" s="7">
-        <v>548399</v>
+        <v>1067581</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,10 +4590,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>608</v>
+        <v>959</v>
       </c>
       <c r="D9" s="7">
-        <v>546720</v>
+        <v>1188312</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5286,10 +4605,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>989</v>
+        <v>1506</v>
       </c>
       <c r="I9" s="7">
-        <v>588622</v>
+        <v>952839</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5301,10 +4620,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1597</v>
+        <v>2465</v>
       </c>
       <c r="N9" s="7">
-        <v>1135342</v>
+        <v>2141151</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5324,49 +4643,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>407</v>
+        <v>349</v>
       </c>
       <c r="D10" s="7">
-        <v>416363</v>
+        <v>314566</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
-        <v>841</v>
+        <v>610</v>
       </c>
       <c r="I10" s="7">
-        <v>523075</v>
+        <v>568177</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
-        <v>1248</v>
+        <v>959</v>
       </c>
       <c r="N10" s="7">
-        <v>939437</v>
+        <v>882743</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,49 +4694,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>325</v>
       </c>
       <c r="D11" s="7">
-        <v>618006</v>
+        <v>387760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>159</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
-        <v>665</v>
+        <v>434</v>
       </c>
       <c r="I11" s="7">
-        <v>530659</v>
+        <v>363454</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
-        <v>1217</v>
+        <v>759</v>
       </c>
       <c r="N11" s="7">
-        <v>1148666</v>
+        <v>751213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,10 +4745,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>959</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1034369</v>
+        <v>702326</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5441,10 +4760,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1506</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="7">
-        <v>1053734</v>
+        <v>931631</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5456,10 +4775,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2465</v>
+        <v>1718</v>
       </c>
       <c r="N12" s="7">
-        <v>2088103</v>
+        <v>1633956</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5473,55 +4792,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>349</v>
+        <v>569</v>
       </c>
       <c r="D13" s="7">
-        <v>327386</v>
+        <v>486171</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
-        <v>610</v>
+        <v>976</v>
       </c>
       <c r="I13" s="7">
-        <v>498190</v>
+        <v>581314</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
-        <v>959</v>
+        <v>1545</v>
       </c>
       <c r="N13" s="7">
-        <v>825576</v>
+        <v>1067485</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,49 +4849,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>325</v>
+        <v>432</v>
       </c>
       <c r="D14" s="7">
-        <v>398944</v>
+        <v>436738</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
-        <v>434</v>
+        <v>578</v>
       </c>
       <c r="I14" s="7">
-        <v>374310</v>
+        <v>507959</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
-        <v>759</v>
+        <v>1010</v>
       </c>
       <c r="N14" s="7">
-        <v>773254</v>
+        <v>944697</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>387</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,10 +4900,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1001</v>
       </c>
       <c r="D15" s="7">
-        <v>726330</v>
+        <v>922909</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5596,10 +4915,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1044</v>
+        <v>1554</v>
       </c>
       <c r="I15" s="7">
-        <v>872500</v>
+        <v>1089273</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5611,10 +4930,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1718</v>
+        <v>2555</v>
       </c>
       <c r="N15" s="7">
-        <v>1598830</v>
+        <v>2012182</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5628,55 +4947,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>569</v>
+        <v>1736</v>
       </c>
       <c r="D16" s="7">
-        <v>501149</v>
+        <v>1714911</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="H16" s="7">
-        <v>976</v>
+        <v>3171</v>
       </c>
       <c r="I16" s="7">
-        <v>639054</v>
+        <v>1993792</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>115</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
-        <v>1545</v>
+        <v>4907</v>
       </c>
       <c r="N16" s="7">
-        <v>1140204</v>
+        <v>3708703</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,49 +5004,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>432</v>
+        <v>1622</v>
       </c>
       <c r="D17" s="7">
-        <v>460095</v>
+        <v>1728800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
-        <v>578</v>
+        <v>2160</v>
       </c>
       <c r="I17" s="7">
-        <v>504960</v>
+        <v>1649811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>342</v>
       </c>
       <c r="M17" s="7">
-        <v>1010</v>
+        <v>3782</v>
       </c>
       <c r="N17" s="7">
-        <v>965054</v>
+        <v>3378611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,10 +5055,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1001</v>
+        <v>3358</v>
       </c>
       <c r="D18" s="7">
-        <v>961244</v>
+        <v>3443711</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5751,10 +5070,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1554</v>
+        <v>5331</v>
       </c>
       <c r="I18" s="7">
-        <v>1144014</v>
+        <v>3643603</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5766,10 +5085,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2555</v>
+        <v>8689</v>
       </c>
       <c r="N18" s="7">
-        <v>2105258</v>
+        <v>7087314</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5782,171 +5101,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1736</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1573670</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3171</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2047507</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4907</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3621177</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1622</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1794492</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2160</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1740065</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3782</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3534557</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3358</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3368162</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5331</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3787572</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8689</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7155734</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
